--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MAINE_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MAINE_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C2">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C8">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -584,12 +584,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C16">
@@ -620,7 +620,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C18">
@@ -664,7 +664,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C21">
@@ -1019,41 +1019,6 @@
       </c>
       <c r="D45">
         <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MAINE_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MAINE_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -864,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -877,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -921,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -965,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -996,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
